--- a/Code/Results/Cases/Case_1_96/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_96/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.197283415181062</v>
+        <v>0.4271489846939573</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.02362070335790634</v>
+        <v>0.004614702950672012</v>
       </c>
       <c r="E2">
-        <v>0.2287773026488225</v>
+        <v>0.135093437805935</v>
       </c>
       <c r="F2">
-        <v>2.364810584527703</v>
+        <v>0.8853024841834696</v>
       </c>
       <c r="G2">
-        <v>2.640096758064601</v>
+        <v>0.8394016251781977</v>
       </c>
       <c r="H2">
-        <v>1.246238832647379</v>
+        <v>0.6505700499109253</v>
       </c>
       <c r="I2">
-        <v>2.163690551622622</v>
+        <v>0.9272109797212238</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>5.553926509704041</v>
+        <v>1.801843627829953</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.038880450014119</v>
+        <v>0.3754131897714501</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.01902753722724171</v>
+        <v>0.004035205983424106</v>
       </c>
       <c r="E3">
-        <v>0.2057218978423876</v>
+        <v>0.1282488325481737</v>
       </c>
       <c r="F3">
-        <v>2.011508130133038</v>
+        <v>0.8148567801142974</v>
       </c>
       <c r="G3">
-        <v>2.237383229445499</v>
+        <v>0.7563778988490242</v>
       </c>
       <c r="H3">
-        <v>1.066324683635088</v>
+        <v>0.6197482330507</v>
       </c>
       <c r="I3">
-        <v>1.901287210188883</v>
+        <v>0.8491968225310558</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>4.810017100324956</v>
+        <v>1.577287430541674</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9422128167972801</v>
+        <v>0.3435217106739969</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.01644818851157481</v>
+        <v>0.003694052512262402</v>
       </c>
       <c r="E4">
-        <v>0.1917121817759977</v>
+        <v>0.1241556180976957</v>
       </c>
       <c r="F4">
-        <v>1.803311254655213</v>
+        <v>0.7725369654360605</v>
       </c>
       <c r="G4">
-        <v>2.000108762402704</v>
+        <v>0.7062663125626045</v>
       </c>
       <c r="H4">
-        <v>0.9609185933991853</v>
+        <v>0.6015454560000251</v>
       </c>
       <c r="I4">
-        <v>1.742988972452778</v>
+        <v>0.8016903550215631</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>4.357462025493817</v>
+        <v>1.439033166115138</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9029338108321099</v>
+        <v>0.3304945580995593</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.01544802734714779</v>
+        <v>0.003558522972419098</v>
       </c>
       <c r="E5">
-        <v>0.1860396428689484</v>
+        <v>0.1225155263798854</v>
       </c>
       <c r="F5">
-        <v>1.72033558366337</v>
+        <v>0.7555202522952271</v>
       </c>
       <c r="G5">
-        <v>1.905544530958679</v>
+        <v>0.6860558564297889</v>
       </c>
       <c r="H5">
-        <v>0.9190547170125001</v>
+        <v>0.5943059865521434</v>
       </c>
       <c r="I5">
-        <v>1.679096285344329</v>
+        <v>0.7824311305090532</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>4.173869587860366</v>
+        <v>1.382599662917983</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8964174795019346</v>
+        <v>0.3283295436708897</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01528477103468973</v>
+        <v>0.003536223772130143</v>
       </c>
       <c r="E6">
-        <v>0.1850999254592764</v>
+        <v>0.1222448894276553</v>
       </c>
       <c r="F6">
-        <v>1.706661371649957</v>
+        <v>0.7527082959238101</v>
       </c>
       <c r="G6">
-        <v>1.889960285590064</v>
+        <v>0.682712426399803</v>
       </c>
       <c r="H6">
-        <v>0.9121641560061278</v>
+        <v>0.5931145539471743</v>
       </c>
       <c r="I6">
-        <v>1.668521560964294</v>
+        <v>0.7792392201439071</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>4.143427981809495</v>
+        <v>1.373223284273593</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9416826692400662</v>
+        <v>0.3433461473186696</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01643450550368541</v>
+        <v>0.003692210822467956</v>
       </c>
       <c r="E7">
-        <v>0.1916355321864032</v>
+        <v>0.1241333856168012</v>
       </c>
       <c r="F7">
-        <v>1.802185065875292</v>
+        <v>0.7723065528628155</v>
       </c>
       <c r="G7">
-        <v>1.99882529957631</v>
+        <v>0.7059929047117066</v>
       </c>
       <c r="H7">
-        <v>0.9603498148290157</v>
+        <v>0.6014471042494733</v>
       </c>
       <c r="I7">
-        <v>1.742124919035732</v>
+        <v>0.8014302121140418</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>4.354982967277309</v>
+        <v>1.43827246273392</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.142520740634808</v>
+        <v>0.409336766479413</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02198076264765092</v>
+        <v>0.004411732776475219</v>
       </c>
       <c r="E8">
-        <v>0.2207971534086965</v>
+        <v>0.132710957134087</v>
       </c>
       <c r="F8">
-        <v>2.240967785389941</v>
+        <v>0.8608153106412288</v>
       </c>
       <c r="G8">
-        <v>2.498919052936543</v>
+        <v>0.8105910874242284</v>
       </c>
       <c r="H8">
-        <v>1.18303628295206</v>
+        <v>0.6397908836927684</v>
       </c>
       <c r="I8">
-        <v>2.07256919396535</v>
+        <v>0.9002302557032777</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>5.296404341949113</v>
+        <v>1.724494993633186</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.542882170324873</v>
+        <v>0.5377370291978423</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.0352858537954539</v>
+        <v>0.005947846494301245</v>
       </c>
       <c r="E9">
-        <v>0.2791772963911825</v>
+        <v>0.1503826086062361</v>
       </c>
       <c r="F9">
-        <v>3.188147745953415</v>
+        <v>1.042071531404417</v>
       </c>
       <c r="G9">
-        <v>3.579330533324622</v>
+        <v>1.022909184827881</v>
       </c>
       <c r="H9">
-        <v>1.669575572867984</v>
+        <v>0.7208624866065065</v>
       </c>
       <c r="I9">
-        <v>2.74778997607001</v>
+        <v>1.097086580383547</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>7.188247451582242</v>
+        <v>2.282796493050995</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.843952574544772</v>
+        <v>0.6314550549882938</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.04743374798322719</v>
+        <v>0.007165071012575908</v>
       </c>
       <c r="E10">
-        <v>0.3228806114475162</v>
+        <v>0.1638639064313168</v>
       </c>
       <c r="F10">
-        <v>3.966360226508471</v>
+        <v>1.180331179345984</v>
       </c>
       <c r="G10">
-        <v>4.468446067613513</v>
+        <v>1.183771661865791</v>
       </c>
       <c r="H10">
-        <v>2.07380016147215</v>
+        <v>0.7842278690313265</v>
       </c>
       <c r="I10">
-        <v>3.268395749584627</v>
+        <v>1.243608395439878</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>8.626969266552237</v>
+        <v>2.691218629851051</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.983218524306494</v>
+        <v>0.6739562360519074</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.05374122838430395</v>
+        <v>0.007740785194084054</v>
       </c>
       <c r="E11">
-        <v>0.3429698695859003</v>
+        <v>0.1701008075289252</v>
       </c>
       <c r="F11">
-        <v>4.346799124718558</v>
+        <v>1.244423546862834</v>
       </c>
       <c r="G11">
-        <v>4.903655248004071</v>
+        <v>1.258116802150539</v>
       </c>
       <c r="H11">
-        <v>2.272599907695934</v>
+        <v>0.8139282583092324</v>
       </c>
       <c r="I11">
-        <v>3.512724798042626</v>
+        <v>1.310678010012339</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>9.29812130978172</v>
+        <v>2.876655317755706</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.036366739869038</v>
+        <v>0.6900312825355286</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.05627147840628055</v>
+        <v>0.007962181435544835</v>
       </c>
       <c r="E12">
-        <v>0.3506108494425106</v>
+        <v>0.1724771677637804</v>
       </c>
       <c r="F12">
-        <v>4.495582873867278</v>
+        <v>1.268872970717553</v>
       </c>
       <c r="G12">
-        <v>5.073962699944104</v>
+        <v>1.286445885769297</v>
       </c>
       <c r="H12">
-        <v>2.350538968084777</v>
+        <v>0.8253047541907677</v>
       </c>
       <c r="I12">
-        <v>3.606545190086933</v>
+        <v>1.336135342880539</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>9.555313924276049</v>
+        <v>2.94682481869566</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.024900613599925</v>
+        <v>0.6865700932559093</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.05571968862654586</v>
+        <v>0.007914345614544516</v>
       </c>
       <c r="E13">
-        <v>0.3489636612770468</v>
+        <v>0.1719647338828167</v>
       </c>
       <c r="F13">
-        <v>4.463312680067645</v>
+        <v>1.263599276742639</v>
       </c>
       <c r="G13">
-        <v>5.037019132268171</v>
+        <v>1.280336741899845</v>
       </c>
       <c r="H13">
-        <v>2.333625676077446</v>
+        <v>0.8228487975814005</v>
       </c>
       <c r="I13">
-        <v>3.586277610726654</v>
+        <v>1.330650007133926</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>9.499775688756642</v>
+        <v>2.931714844249569</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.987582312984443</v>
+        <v>0.6752791267635416</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.05394635713694385</v>
+        <v>0.007758930447774759</v>
       </c>
       <c r="E14">
-        <v>0.3435977986235486</v>
+        <v>0.1702960221630576</v>
       </c>
       <c r="F14">
-        <v>4.358939005838295</v>
+        <v>1.246431387845774</v>
       </c>
       <c r="G14">
-        <v>4.917549124542234</v>
+        <v>1.260443874071825</v>
       </c>
       <c r="H14">
-        <v>2.27895535269127</v>
+        <v>0.8148615902798326</v>
       </c>
       <c r="I14">
-        <v>3.520416035336467</v>
+        <v>1.31277120852215</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>9.319215500828619</v>
+        <v>2.882429233728345</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.964779926574153</v>
+        <v>0.6683605713373311</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.05287960111166967</v>
+        <v>0.007664181790634217</v>
       </c>
       <c r="E15">
-        <v>0.3403155594627592</v>
+        <v>0.1692757751510783</v>
       </c>
       <c r="F15">
-        <v>4.295652795141166</v>
+        <v>1.235939081385936</v>
       </c>
       <c r="G15">
-        <v>4.845123484989784</v>
+        <v>1.248282110429813</v>
       </c>
       <c r="H15">
-        <v>2.245831652939899</v>
+        <v>0.8099861859504074</v>
       </c>
       <c r="I15">
-        <v>3.480250200014751</v>
+        <v>1.301827672743258</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>9.209035021135151</v>
+        <v>2.85223368790929</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.834904128119661</v>
+        <v>0.6286748277079823</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.04703960897023052</v>
+        <v>0.007127908280875062</v>
       </c>
       <c r="E16">
-        <v>0.3215722095292151</v>
+        <v>0.1634583723955458</v>
       </c>
       <c r="F16">
-        <v>3.942103266442075</v>
+        <v>1.176167269745463</v>
       </c>
       <c r="G16">
-        <v>4.44070966581657</v>
+        <v>1.178937236044248</v>
       </c>
       <c r="H16">
-        <v>2.061149459769382</v>
+        <v>0.7823048087493589</v>
       </c>
       <c r="I16">
-        <v>3.252597105509338</v>
+        <v>1.239233582534922</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>8.583495174064836</v>
+        <v>2.679092720778215</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.755872859993161</v>
+        <v>0.6042949722744027</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.04367578485904744</v>
+        <v>0.006804712338809082</v>
       </c>
       <c r="E17">
-        <v>0.3101293809030139</v>
+        <v>0.159915982253473</v>
       </c>
       <c r="F17">
-        <v>3.732570988234329</v>
+        <v>1.139810713129293</v>
       </c>
       <c r="G17">
-        <v>4.201184018092874</v>
+        <v>1.13670136969003</v>
       </c>
       <c r="H17">
-        <v>1.952002472784443</v>
+        <v>0.765549981230464</v>
       </c>
       <c r="I17">
-        <v>3.1150049841075</v>
+        <v>1.200940455419044</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>8.204431016941044</v>
+        <v>2.572784910497035</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.710627883210748</v>
+        <v>0.5902599513465816</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.04181241921730816</v>
+        <v>0.00662087504933595</v>
       </c>
       <c r="E18">
-        <v>0.3035671044631982</v>
+        <v>0.1578883236587245</v>
       </c>
       <c r="F18">
-        <v>3.614475152184667</v>
+        <v>1.119011667472506</v>
       </c>
       <c r="G18">
-        <v>4.066231752453149</v>
+        <v>1.112517852641474</v>
       </c>
       <c r="H18">
-        <v>1.890591265660021</v>
+        <v>0.7559951930807358</v>
       </c>
       <c r="I18">
-        <v>3.036556628096235</v>
+        <v>1.178954439072086</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>7.987926407584041</v>
+        <v>2.511605899439274</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.695342872433145</v>
+        <v>0.5855058191599483</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.04119300128235182</v>
+        <v>0.006558977363230412</v>
       </c>
       <c r="E19">
-        <v>0.3013484591102653</v>
+        <v>0.1572034940399405</v>
       </c>
       <c r="F19">
-        <v>3.574881146473189</v>
+        <v>1.111988545908105</v>
       </c>
       <c r="G19">
-        <v>4.02099394808107</v>
+        <v>1.104348276357342</v>
       </c>
       <c r="H19">
-        <v>1.870019547524294</v>
+        <v>0.7527741011766125</v>
       </c>
       <c r="I19">
-        <v>3.010107985799834</v>
+        <v>1.171517091709902</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>7.91486590967142</v>
+        <v>2.490885976699388</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.764263429539568</v>
+        <v>0.606891532354723</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.04402628852307799</v>
+        <v>0.006838902656355117</v>
       </c>
       <c r="E20">
-        <v>0.3113454657021038</v>
+        <v>0.1602920612399856</v>
       </c>
       <c r="F20">
-        <v>3.754619436742956</v>
+        <v>1.14366926038042</v>
       </c>
       <c r="G20">
-        <v>4.226383381339048</v>
+        <v>1.141186064312762</v>
       </c>
       <c r="H20">
-        <v>1.963476508283264</v>
+        <v>0.7673250324821765</v>
       </c>
       <c r="I20">
-        <v>3.129578921481624</v>
+        <v>1.205012772033328</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>8.244621202133544</v>
+        <v>2.584105033825466</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.998531738546546</v>
+        <v>0.6785960813943177</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.05446310834707191</v>
+        <v>0.007804485962438434</v>
       </c>
       <c r="E21">
-        <v>0.3451729350671542</v>
+        <v>0.1707857706810643</v>
       </c>
       <c r="F21">
-        <v>4.389459562005101</v>
+        <v>1.251469098770457</v>
       </c>
       <c r="G21">
-        <v>4.952481086473426</v>
+        <v>1.266282043418272</v>
       </c>
       <c r="H21">
-        <v>2.294936512930008</v>
+        <v>0.8172040790163635</v>
       </c>
       <c r="I21">
-        <v>3.539723988565299</v>
+        <v>1.318021031495192</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>9.372161953208177</v>
+        <v>2.896907005549281</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.15408435910291</v>
+        <v>0.7253469575566101</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.06213006211950045</v>
+        <v>0.008455391768777076</v>
       </c>
       <c r="E22">
-        <v>0.3674797268255787</v>
+        <v>0.1777288251507869</v>
       </c>
       <c r="F22">
-        <v>4.832475336865286</v>
+        <v>1.322969347187552</v>
       </c>
       <c r="G22">
-        <v>5.459812072971204</v>
+        <v>1.349070404676496</v>
       </c>
       <c r="H22">
-        <v>2.527392560866474</v>
+        <v>0.8505601367290865</v>
       </c>
       <c r="I22">
-        <v>3.815478523933422</v>
+        <v>1.392225354192107</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>10.12722423011482</v>
+        <v>3.101041966647244</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.070809175340514</v>
+        <v>0.7004054908222201</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.05794882141159263</v>
+        <v>0.008106100825841622</v>
       </c>
       <c r="E23">
-        <v>0.3555544552603749</v>
+        <v>0.1740155571284987</v>
       </c>
       <c r="F23">
-        <v>4.593092153661672</v>
+        <v>1.284710238004863</v>
       </c>
       <c r="G23">
-        <v>5.185610305287781</v>
+        <v>1.304787612220252</v>
       </c>
       <c r="H23">
-        <v>2.401674296896317</v>
+        <v>0.8326868367687155</v>
       </c>
       <c r="I23">
-        <v>3.667514721331742</v>
+        <v>1.352589444448142</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>9.722317417008327</v>
+        <v>2.992118653519555</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.760469463460396</v>
+        <v>0.605717685818945</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.04386760820712254</v>
+        <v>0.006823439087337846</v>
       </c>
       <c r="E24">
-        <v>0.3107956230703408</v>
+        <v>0.160122008151049</v>
       </c>
       <c r="F24">
-        <v>3.744644026704862</v>
+        <v>1.14192449141467</v>
       </c>
       <c r="G24">
-        <v>4.214982248526297</v>
+        <v>1.139158227860804</v>
       </c>
       <c r="H24">
-        <v>1.958284963644644</v>
+        <v>0.7665222898106947</v>
       </c>
       <c r="I24">
-        <v>3.122988019653022</v>
+        <v>1.203171586676291</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>8.226446829234135</v>
+        <v>2.578987396792883</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.433596442937471</v>
+        <v>0.5031096965234099</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.03134523112200682</v>
+        <v>0.005517625753427069</v>
       </c>
       <c r="E25">
-        <v>0.2632494189364607</v>
+        <v>0.145513032004061</v>
       </c>
       <c r="F25">
-        <v>2.91991196889947</v>
+        <v>0.9921723771782638</v>
       </c>
       <c r="G25">
-        <v>3.27319300149199</v>
+        <v>0.9646511563996683</v>
       </c>
       <c r="H25">
-        <v>1.5311090181373</v>
+        <v>0.6982787314453276</v>
       </c>
       <c r="I25">
-        <v>2.561463658916693</v>
+        <v>1.043499664472861</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>6.669630761547069</v>
+        <v>2.132075121552504</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_96/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_96/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.4271489846939573</v>
+        <v>1.197283415181062</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.004614702950672012</v>
+        <v>0.02362070335780331</v>
       </c>
       <c r="E2">
-        <v>0.135093437805935</v>
+        <v>0.2287773026488367</v>
       </c>
       <c r="F2">
-        <v>0.8853024841834696</v>
+        <v>2.364810584527703</v>
       </c>
       <c r="G2">
-        <v>0.8394016251781977</v>
+        <v>2.640096758064658</v>
       </c>
       <c r="H2">
-        <v>0.6505700499109253</v>
+        <v>1.246238832647379</v>
       </c>
       <c r="I2">
-        <v>0.9272109797212238</v>
+        <v>2.163690551622608</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>1.801843627829953</v>
+        <v>5.55392650970407</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.3754131897714501</v>
+        <v>1.038880450013892</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.004035205983424106</v>
+        <v>0.01902753722735184</v>
       </c>
       <c r="E3">
-        <v>0.1282488325481737</v>
+        <v>0.2057218978423947</v>
       </c>
       <c r="F3">
-        <v>0.8148567801142974</v>
+        <v>2.011508130133024</v>
       </c>
       <c r="G3">
-        <v>0.7563778988490242</v>
+        <v>2.237383229445612</v>
       </c>
       <c r="H3">
-        <v>0.6197482330507</v>
+        <v>1.066324683635088</v>
       </c>
       <c r="I3">
-        <v>0.8491968225310558</v>
+        <v>1.901287210188855</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>1.577287430541674</v>
+        <v>4.810017100324984</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.3435217106739969</v>
+        <v>0.9422128167969674</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.003694052512262402</v>
+        <v>0.01644818851139362</v>
       </c>
       <c r="E4">
-        <v>0.1241556180976957</v>
+        <v>0.1917121817760261</v>
       </c>
       <c r="F4">
-        <v>0.7725369654360605</v>
+        <v>1.803311254655213</v>
       </c>
       <c r="G4">
-        <v>0.7062663125626045</v>
+        <v>2.000108762402732</v>
       </c>
       <c r="H4">
-        <v>0.6015454560000251</v>
+        <v>0.9609185933990716</v>
       </c>
       <c r="I4">
-        <v>0.8016903550215631</v>
+        <v>1.742988972452764</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>1.439033166115138</v>
+        <v>4.357462025493803</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.3304945580995593</v>
+        <v>0.9029338108320815</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.003558522972419098</v>
+        <v>0.01544802734712292</v>
       </c>
       <c r="E5">
-        <v>0.1225155263798854</v>
+        <v>0.1860396428689413</v>
       </c>
       <c r="F5">
-        <v>0.7555202522952271</v>
+        <v>1.720335583663385</v>
       </c>
       <c r="G5">
-        <v>0.6860558564297889</v>
+        <v>1.905544530958736</v>
       </c>
       <c r="H5">
-        <v>0.5943059865521434</v>
+        <v>0.9190547170125001</v>
       </c>
       <c r="I5">
-        <v>0.7824311305090532</v>
+        <v>1.679096285344343</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>1.382599662917983</v>
+        <v>4.173869587860338</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.3283295436708897</v>
+        <v>0.896417479502162</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.003536223772130143</v>
+        <v>0.01528477103488513</v>
       </c>
       <c r="E6">
-        <v>0.1222448894276553</v>
+        <v>0.1850999254592836</v>
       </c>
       <c r="F6">
-        <v>0.7527082959238101</v>
+        <v>1.706661371649972</v>
       </c>
       <c r="G6">
-        <v>0.682712426399803</v>
+        <v>1.889960285590149</v>
       </c>
       <c r="H6">
-        <v>0.5931145539471743</v>
+        <v>0.9121641560061278</v>
       </c>
       <c r="I6">
-        <v>0.7792392201439071</v>
+        <v>1.668521560964251</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>1.373223284273593</v>
+        <v>4.143427981809495</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.3433461473186696</v>
+        <v>0.9416826692400377</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.003692210822467956</v>
+        <v>0.01643450550368897</v>
       </c>
       <c r="E7">
-        <v>0.1241333856168012</v>
+        <v>0.1916355321864032</v>
       </c>
       <c r="F7">
-        <v>0.7723065528628155</v>
+        <v>1.802185065875307</v>
       </c>
       <c r="G7">
-        <v>0.7059929047117066</v>
+        <v>1.998825299576282</v>
       </c>
       <c r="H7">
-        <v>0.6014471042494733</v>
+        <v>0.9603498148290157</v>
       </c>
       <c r="I7">
-        <v>0.8014302121140418</v>
+        <v>1.742124919035717</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>1.43827246273392</v>
+        <v>4.354982967277323</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.409336766479413</v>
+        <v>1.142520740635433</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.004411732776475219</v>
+        <v>0.02198076264765447</v>
       </c>
       <c r="E8">
-        <v>0.132710957134087</v>
+        <v>0.2207971534086894</v>
       </c>
       <c r="F8">
-        <v>0.8608153106412288</v>
+        <v>2.240967785389913</v>
       </c>
       <c r="G8">
-        <v>0.8105910874242284</v>
+        <v>2.498919052936515</v>
       </c>
       <c r="H8">
-        <v>0.6397908836927684</v>
+        <v>1.183036282951946</v>
       </c>
       <c r="I8">
-        <v>0.9002302557032777</v>
+        <v>2.072569193965379</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>1.724494993633186</v>
+        <v>5.296404341949142</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.5377370291978423</v>
+        <v>1.542882170324361</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.005947846494301245</v>
+        <v>0.03528585379556048</v>
       </c>
       <c r="E9">
-        <v>0.1503826086062361</v>
+        <v>0.2791772963911967</v>
       </c>
       <c r="F9">
-        <v>1.042071531404417</v>
+        <v>3.188147745953444</v>
       </c>
       <c r="G9">
-        <v>1.022909184827881</v>
+        <v>3.579330533324622</v>
       </c>
       <c r="H9">
-        <v>0.7208624866065065</v>
+        <v>1.669575572867984</v>
       </c>
       <c r="I9">
-        <v>1.097086580383547</v>
+        <v>2.747789976070024</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>2.282796493050995</v>
+        <v>7.188247451582214</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.6314550549882938</v>
+        <v>1.843952574545</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.007165071012575908</v>
+        <v>0.0474337479832343</v>
       </c>
       <c r="E10">
-        <v>0.1638639064313168</v>
+        <v>0.3228806114474878</v>
       </c>
       <c r="F10">
-        <v>1.180331179345984</v>
+        <v>3.966360226508414</v>
       </c>
       <c r="G10">
-        <v>1.183771661865791</v>
+        <v>4.468446067613542</v>
       </c>
       <c r="H10">
-        <v>0.7842278690313265</v>
+        <v>2.07380016147215</v>
       </c>
       <c r="I10">
-        <v>1.243608395439878</v>
+        <v>3.268395749584656</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>2.691218629851051</v>
+        <v>8.626969266552265</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.6739562360519074</v>
+        <v>1.983218524306835</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.007740785194084054</v>
+        <v>0.05374122838417605</v>
       </c>
       <c r="E11">
-        <v>0.1701008075289252</v>
+        <v>0.3429698695859003</v>
       </c>
       <c r="F11">
-        <v>1.244423546862834</v>
+        <v>4.346799124718558</v>
       </c>
       <c r="G11">
-        <v>1.258116802150539</v>
+        <v>4.903655248004043</v>
       </c>
       <c r="H11">
-        <v>0.8139282583092324</v>
+        <v>2.272599907695962</v>
       </c>
       <c r="I11">
-        <v>1.310678010012339</v>
+        <v>3.512724798042569</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>2.876655317755706</v>
+        <v>9.298121309781692</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.6900312825355286</v>
+        <v>2.036366739868754</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.007962181435544835</v>
+        <v>0.05627147840640845</v>
       </c>
       <c r="E12">
-        <v>0.1724771677637804</v>
+        <v>0.3506108494425106</v>
       </c>
       <c r="F12">
-        <v>1.268872970717553</v>
+        <v>4.495582873867278</v>
       </c>
       <c r="G12">
-        <v>1.286445885769297</v>
+        <v>5.07396269994419</v>
       </c>
       <c r="H12">
-        <v>0.8253047541907677</v>
+        <v>2.350538968084749</v>
       </c>
       <c r="I12">
-        <v>1.336135342880539</v>
+        <v>3.606545190086877</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>2.94682481869566</v>
+        <v>9.555313924275964</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.6865700932559093</v>
+        <v>2.024900613599868</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.007914345614544516</v>
+        <v>0.05571968862656007</v>
       </c>
       <c r="E13">
-        <v>0.1719647338828167</v>
+        <v>0.3489636612770468</v>
       </c>
       <c r="F13">
-        <v>1.263599276742639</v>
+        <v>4.463312680067588</v>
       </c>
       <c r="G13">
-        <v>1.280336741899845</v>
+        <v>5.037019132268085</v>
       </c>
       <c r="H13">
-        <v>0.8228487975814005</v>
+        <v>2.333625676077446</v>
       </c>
       <c r="I13">
-        <v>1.330650007133926</v>
+        <v>3.586277610726626</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>2.931714844249569</v>
+        <v>9.499775688756642</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.6752791267635416</v>
+        <v>1.98758231298433</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.007758930447774759</v>
+        <v>0.05394635713694385</v>
       </c>
       <c r="E14">
-        <v>0.1702960221630576</v>
+        <v>0.3435977986235557</v>
       </c>
       <c r="F14">
-        <v>1.246431387845774</v>
+        <v>4.358939005838351</v>
       </c>
       <c r="G14">
-        <v>1.260443874071825</v>
+        <v>4.917549124542148</v>
       </c>
       <c r="H14">
-        <v>0.8148615902798326</v>
+        <v>2.27895535269127</v>
       </c>
       <c r="I14">
-        <v>1.31277120852215</v>
+        <v>3.520416035336467</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>2.882429233728345</v>
+        <v>9.319215500828619</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.6683605713373311</v>
+        <v>1.964779926574693</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.007664181790634217</v>
+        <v>0.05287960111166257</v>
       </c>
       <c r="E15">
-        <v>0.1692757751510783</v>
+        <v>0.3403155594627592</v>
       </c>
       <c r="F15">
-        <v>1.235939081385936</v>
+        <v>4.295652795141166</v>
       </c>
       <c r="G15">
-        <v>1.248282110429813</v>
+        <v>4.845123484989784</v>
       </c>
       <c r="H15">
-        <v>0.8099861859504074</v>
+        <v>2.245831652939899</v>
       </c>
       <c r="I15">
-        <v>1.301827672743258</v>
+        <v>3.480250200014808</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>2.85223368790929</v>
+        <v>9.209035021135151</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.6286748277079823</v>
+        <v>1.834904128118978</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.007127908280875062</v>
+        <v>0.04703960897032999</v>
       </c>
       <c r="E16">
-        <v>0.1634583723955458</v>
+        <v>0.3215722095292008</v>
       </c>
       <c r="F16">
-        <v>1.176167269745463</v>
+        <v>3.942103266442132</v>
       </c>
       <c r="G16">
-        <v>1.178937236044248</v>
+        <v>4.440709665816598</v>
       </c>
       <c r="H16">
-        <v>0.7823048087493589</v>
+        <v>2.061149459769382</v>
       </c>
       <c r="I16">
-        <v>1.239233582534922</v>
+        <v>3.252597105509338</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>2.679092720778215</v>
+        <v>8.583495174064808</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.6042949722744027</v>
+        <v>1.755872859993076</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.006804712338809082</v>
+        <v>0.04367578485901191</v>
       </c>
       <c r="E17">
-        <v>0.159915982253473</v>
+        <v>0.3101293809030494</v>
       </c>
       <c r="F17">
-        <v>1.139810713129293</v>
+        <v>3.732570988234386</v>
       </c>
       <c r="G17">
-        <v>1.13670136969003</v>
+        <v>4.201184018092903</v>
       </c>
       <c r="H17">
-        <v>0.765549981230464</v>
+        <v>1.952002472784585</v>
       </c>
       <c r="I17">
-        <v>1.200940455419044</v>
+        <v>3.115004984107443</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>2.572784910497035</v>
+        <v>8.204431016940987</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.5902599513465816</v>
+        <v>1.71062788321052</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.00662087504933595</v>
+        <v>0.04181241921721579</v>
       </c>
       <c r="E18">
-        <v>0.1578883236587245</v>
+        <v>0.3035671044631982</v>
       </c>
       <c r="F18">
-        <v>1.119011667472506</v>
+        <v>3.614475152184639</v>
       </c>
       <c r="G18">
-        <v>1.112517852641474</v>
+        <v>4.066231752453064</v>
       </c>
       <c r="H18">
-        <v>0.7559951930807358</v>
+        <v>1.890591265659907</v>
       </c>
       <c r="I18">
-        <v>1.178954439072086</v>
+        <v>3.036556628096235</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>2.511605899439274</v>
+        <v>7.987926407583984</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.5855058191599483</v>
+        <v>1.695342872433343</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.006558977363230412</v>
+        <v>0.04119300128245129</v>
       </c>
       <c r="E19">
-        <v>0.1572034940399405</v>
+        <v>0.3013484591102511</v>
       </c>
       <c r="F19">
-        <v>1.111988545908105</v>
+        <v>3.574881146473189</v>
       </c>
       <c r="G19">
-        <v>1.104348276357342</v>
+        <v>4.020993948081099</v>
       </c>
       <c r="H19">
-        <v>0.7527741011766125</v>
+        <v>1.870019547524407</v>
       </c>
       <c r="I19">
-        <v>1.171517091709902</v>
+        <v>3.01010798579982</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>2.490885976699388</v>
+        <v>7.91486590967142</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.606891532354723</v>
+        <v>1.764263429539511</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.006838902656355117</v>
+        <v>0.04402628852320589</v>
       </c>
       <c r="E20">
-        <v>0.1602920612399856</v>
+        <v>0.3113454657021038</v>
       </c>
       <c r="F20">
-        <v>1.14366926038042</v>
+        <v>3.754619436742956</v>
       </c>
       <c r="G20">
-        <v>1.141186064312762</v>
+        <v>4.226383381339019</v>
       </c>
       <c r="H20">
-        <v>0.7673250324821765</v>
+        <v>1.963476508283264</v>
       </c>
       <c r="I20">
-        <v>1.205012772033328</v>
+        <v>3.12957892148161</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>2.584105033825466</v>
+        <v>8.244621202133544</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.6785960813943177</v>
+        <v>1.998531738546546</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.007804485962438434</v>
+        <v>0.0544631083471856</v>
       </c>
       <c r="E21">
-        <v>0.1707857706810643</v>
+        <v>0.3451729350671542</v>
       </c>
       <c r="F21">
-        <v>1.251469098770457</v>
+        <v>4.389459562005101</v>
       </c>
       <c r="G21">
-        <v>1.266282043418272</v>
+        <v>4.952481086473512</v>
       </c>
       <c r="H21">
-        <v>0.8172040790163635</v>
+        <v>2.294936512929894</v>
       </c>
       <c r="I21">
-        <v>1.318021031495192</v>
+        <v>3.539723988565328</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>2.896907005549281</v>
+        <v>9.372161953208263</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.7253469575566101</v>
+        <v>2.154084359102399</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.008455391768777076</v>
+        <v>0.06213006211950045</v>
       </c>
       <c r="E22">
-        <v>0.1777288251507869</v>
+        <v>0.3674797268255361</v>
       </c>
       <c r="F22">
-        <v>1.322969347187552</v>
+        <v>4.83247533686523</v>
       </c>
       <c r="G22">
-        <v>1.349070404676496</v>
+        <v>5.459812072971033</v>
       </c>
       <c r="H22">
-        <v>0.8505601367290865</v>
+        <v>2.527392560866474</v>
       </c>
       <c r="I22">
-        <v>1.392225354192107</v>
+        <v>3.815478523933365</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>3.101041966647244</v>
+        <v>10.12722423011479</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.7004054908222201</v>
+        <v>2.070809175340003</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.008106100825841622</v>
+        <v>0.05794882141158553</v>
       </c>
       <c r="E23">
-        <v>0.1740155571284987</v>
+        <v>0.3555544552603891</v>
       </c>
       <c r="F23">
-        <v>1.284710238004863</v>
+        <v>4.593092153661701</v>
       </c>
       <c r="G23">
-        <v>1.304787612220252</v>
+        <v>5.185610305287724</v>
       </c>
       <c r="H23">
-        <v>0.8326868367687155</v>
+        <v>2.401674296896346</v>
       </c>
       <c r="I23">
-        <v>1.352589444448142</v>
+        <v>3.667514721331742</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>2.992118653519555</v>
+        <v>9.722317417008384</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.605717685818945</v>
+        <v>1.760469463460623</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.006823439087337846</v>
+        <v>0.04386760820734992</v>
       </c>
       <c r="E24">
-        <v>0.160122008151049</v>
+        <v>0.3107956230703124</v>
       </c>
       <c r="F24">
-        <v>1.14192449141467</v>
+        <v>3.744644026704833</v>
       </c>
       <c r="G24">
-        <v>1.139158227860804</v>
+        <v>4.214982248526297</v>
       </c>
       <c r="H24">
-        <v>0.7665222898106947</v>
+        <v>1.95828496364453</v>
       </c>
       <c r="I24">
-        <v>1.203171586676291</v>
+        <v>3.122988019652979</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>2.578987396792883</v>
+        <v>8.226446829234163</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.5031096965234099</v>
+        <v>1.433596442937613</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.005517625753427069</v>
+        <v>0.03134523112200327</v>
       </c>
       <c r="E25">
-        <v>0.145513032004061</v>
+        <v>0.2632494189364607</v>
       </c>
       <c r="F25">
-        <v>0.9921723771782638</v>
+        <v>2.91991196889947</v>
       </c>
       <c r="G25">
-        <v>0.9646511563996683</v>
+        <v>3.273193001492047</v>
       </c>
       <c r="H25">
-        <v>0.6982787314453276</v>
+        <v>1.531109018137386</v>
       </c>
       <c r="I25">
-        <v>1.043499664472861</v>
+        <v>2.561463658916679</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>2.132075121552504</v>
+        <v>6.669630761547097</v>
       </c>
       <c r="N25">
         <v>0</v>
